--- a/resources/cs-sma.xlsx
+++ b/resources/cs-sma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871EE0BD-BAF0-44F6-B917-627687840B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D06EF76-1EFA-47BE-8D56-40E9ACA6F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29310" yWindow="2880" windowWidth="15315" windowHeight="14220" xr2:uid="{B43A2607-1891-40AA-9EDF-54AD48247248}"/>
+    <workbookView xWindow="28935" yWindow="-10440" windowWidth="15315" windowHeight="12960" xr2:uid="{B43A2607-1891-40AA-9EDF-54AD48247248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -96,30 +92,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +444,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,9 +462,9 @@
       <c r="B1" s="2">
         <v>22.273399999999999</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -489,9 +473,9 @@
       <c r="B2" s="2">
         <v>22.193999999999999</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -500,9 +484,9 @@
       <c r="B3" s="2">
         <v>22.084700000000002</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -511,9 +495,9 @@
       <c r="B4" s="2">
         <v>22.174099999999999</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -522,9 +506,9 @@
       <c r="B5" s="2">
         <v>22.184000000000001</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -533,9 +517,9 @@
       <c r="B6" s="2">
         <v>22.134399999999999</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -544,9 +528,9 @@
       <c r="B7" s="2">
         <v>22.233699999999999</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -555,9 +539,9 @@
       <c r="B8" s="2">
         <v>22.432300000000001</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -566,9 +550,9 @@
       <c r="B9" s="2">
         <v>22.243600000000001</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -577,11 +561,11 @@
       <c r="B10" s="2">
         <v>22.293299999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>22.22475</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -590,11 +574,11 @@
       <c r="B11" s="2">
         <v>22.154199999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>22.212829999999997</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -603,11 +587,11 @@
       <c r="B12" s="2">
         <v>22.392600000000002</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>22.232690000000002</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -616,11 +600,11 @@
       <c r="B13" s="2">
         <v>22.381599999999999</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>22.26238</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -629,11 +613,11 @@
       <c r="B14" s="2">
         <v>22.610900000000001</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>22.306060000000002</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -642,11 +626,11 @@
       <c r="B15" s="2">
         <v>23.355799999999999</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>22.42324</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -655,11 +639,11 @@
       <c r="B16" s="2">
         <v>24.0519</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>22.614989999999999</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -668,11 +652,11 @@
       <c r="B17" s="2">
         <v>23.753</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>22.766919999999999</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -681,11 +665,11 @@
       <c r="B18" s="2">
         <v>23.8324</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>22.906929999999999</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -694,11 +678,11 @@
       <c r="B19" s="2">
         <v>23.951599999999999</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>23.077729999999995</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -707,11 +691,11 @@
       <c r="B20" s="2">
         <v>23.633800000000001</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>23.211779999999997</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -720,11 +704,11 @@
       <c r="B21" s="2">
         <v>23.822500000000002</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>23.378609999999998</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -733,11 +717,11 @@
       <c r="B22" s="2">
         <v>23.872199999999999</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>23.52657</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -746,11 +730,11 @@
       <c r="B23" s="2">
         <v>23.653700000000001</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>23.653780000000001</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -759,11 +743,11 @@
       <c r="B24" s="2">
         <v>23.187000000000001</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>23.711390000000002</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -772,11 +756,11 @@
       <c r="B25" s="2">
         <v>23.0976</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>23.685570000000002</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -785,11 +769,11 @@
       <c r="B26" s="2">
         <v>23.326000000000001</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>23.61298</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -798,11 +782,11 @@
       <c r="B27" s="2">
         <v>22.680499999999999</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>23.505730000000003</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -811,11 +795,11 @@
       <c r="B28" s="2">
         <v>23.0976</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>23.43225</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -824,11 +808,11 @@
       <c r="B29" s="2">
         <v>22.4025</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>23.277339999999999</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -837,11 +821,11 @@
       <c r="B30" s="2">
         <v>22.172499999999999</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>23.131209999999999</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
